--- a/data/series/aglomerado_tot/Serie flujo condicion de actividad.xlsx
+++ b/data/series/aglomerado_tot/Serie flujo condicion de actividad.xlsx
@@ -1,97 +1,158 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\Pablo\Proyectos\eph_panel\data\series\aglomerado_tot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC7471D-7D9B-43F7-B066-5EAC4C4D8B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="b_permanencia" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="b_ocup_Tant" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="b_des_Tant" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="b_inac_Tant" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="b_ocup_Tpos" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="b_des_Tpos" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="b_inac_Tpos" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="b_permanencia" sheetId="1" r:id="rId1"/>
+    <sheet name="b_ocup_Tant" sheetId="2" r:id="rId2"/>
+    <sheet name="b_des_Tant" sheetId="3" r:id="rId3"/>
+    <sheet name="b_inac_Tant" sheetId="4" r:id="rId4"/>
+    <sheet name="b_ocup_Tpos" sheetId="5" r:id="rId5"/>
+    <sheet name="b_des_Tpos" sheetId="6" r:id="rId6"/>
+    <sheet name="b_inac_Tpos" sheetId="7" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t xml:space="preserve">Tasa de permanencia en la condiciÃ³n de actividad entre dos trimestres consecutivos. Total aglomerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoblaciÃ³n ocupada en el trimestre anterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoblaciÃ³n desocupada en el trimestre anterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoblaciÃ³n inactiva en el trimestre anterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoblaciÃ³n ocupada en el trimestre posterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoblaciÃ³n desocupada en el trimestre posterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PoblaciÃ³n inactiva en el trimestre posterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t2_3_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t3_4_2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">t4_2016 - t1_2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanecen activos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanecen inactivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanecen ocupados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanecen desocupados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permanecen menores</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tasa de movilidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Activos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocupados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desocupados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inactivos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menores de 10 aÃ±os / No imputados</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="40">
+  <si>
+    <t>Tasa de permanencia en la condiciÃ³n de actividad entre dos trimestres consecutivos. Total aglomerados.</t>
+  </si>
+  <si>
+    <t>PoblaciÃ³n ocupada en el trimestre anterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
+  </si>
+  <si>
+    <t>PoblaciÃ³n desocupada en el trimestre anterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
+  </si>
+  <si>
+    <t>PoblaciÃ³n inactiva en el trimestre anterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
+  </si>
+  <si>
+    <t>PoblaciÃ³n ocupada en el trimestre posterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
+  </si>
+  <si>
+    <t>PoblaciÃ³n desocupada en el trimestre posterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
+  </si>
+  <si>
+    <t>PoblaciÃ³n inactiva en el trimestre posterior por condiciÃ³n de actividad en el trimestre posterior. Total aglomerados.</t>
+  </si>
+  <si>
+    <t>Tasas</t>
+  </si>
+  <si>
+    <t>t4_2016 - t1_2017</t>
+  </si>
+  <si>
+    <t>t1_2017 - t2_2017</t>
+  </si>
+  <si>
+    <t>t2_2017 - t3_2017</t>
+  </si>
+  <si>
+    <t>t3_2017 - t4_2017</t>
+  </si>
+  <si>
+    <t>t4_2017 - t1_2018</t>
+  </si>
+  <si>
+    <t>t1_2018 - t2_2018</t>
+  </si>
+  <si>
+    <t>t2_2018 - t3_2018</t>
+  </si>
+  <si>
+    <t>t3_2018 - t4_2018</t>
+  </si>
+  <si>
+    <t>t4_2018 - t1_2019</t>
+  </si>
+  <si>
+    <t>t1_2019 - t2_2019</t>
+  </si>
+  <si>
+    <t>t2_2019 - t3_2019</t>
+  </si>
+  <si>
+    <t>t3_2019 - t4_2019</t>
+  </si>
+  <si>
+    <t>t4_2019 - t1_2020</t>
+  </si>
+  <si>
+    <t>t1_2020 - t2_2020</t>
+  </si>
+  <si>
+    <t>t2_2020 - t3_2020</t>
+  </si>
+  <si>
+    <t>t3_2020 - t4_2020</t>
+  </si>
+  <si>
+    <t>t4_2020 - t1_2021</t>
+  </si>
+  <si>
+    <t>t1_2021 - t2_2021</t>
+  </si>
+  <si>
+    <t>Permanecen activos</t>
+  </si>
+  <si>
+    <t>Permanecen inactivos</t>
+  </si>
+  <si>
+    <t>Permanecen ocupados</t>
+  </si>
+  <si>
+    <t>Permanecen desocupados</t>
+  </si>
+  <si>
+    <t>Permanecen menores</t>
+  </si>
+  <si>
+    <t>Tasa de movilidad</t>
+  </si>
+  <si>
+    <t>Activos</t>
+  </si>
+  <si>
+    <t>Ocupados</t>
+  </si>
+  <si>
+    <t>Desocupados</t>
+  </si>
+  <si>
+    <t>Inactivos</t>
+  </si>
+  <si>
+    <t>Menores de 10 aÃ±os / No imputados</t>
+  </si>
+  <si>
+    <t>t3_2016 - t4_2016</t>
+  </si>
+  <si>
+    <t>t2_2016 - t3_2016</t>
+  </si>
+  <si>
+    <t>t4_2016 - t3_2016</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,6 +188,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,736 +478,2943 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B3">
         <v>90.6</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>90.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>90.1</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>89.9</v>
+      </c>
+      <c r="G3">
+        <v>91</v>
+      </c>
+      <c r="H3">
+        <v>89.7</v>
+      </c>
+      <c r="I3">
+        <v>90.3</v>
+      </c>
+      <c r="J3">
+        <v>90.4</v>
+      </c>
+      <c r="K3">
+        <v>90.7</v>
+      </c>
+      <c r="L3">
+        <v>89.6</v>
+      </c>
+      <c r="M3">
+        <v>89.6</v>
+      </c>
+      <c r="N3">
+        <v>91</v>
+      </c>
+      <c r="O3">
+        <v>90.9</v>
+      </c>
+      <c r="P3">
+        <v>89.9</v>
+      </c>
+      <c r="Q3">
+        <v>93.4</v>
+      </c>
+      <c r="R3">
+        <v>85.4</v>
+      </c>
+      <c r="S3">
+        <v>88.8</v>
+      </c>
+      <c r="T3">
+        <v>90.2</v>
+      </c>
+      <c r="U3">
+        <v>90.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B4">
         <v>87.2</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>88.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>88.3</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>87.8</v>
+      </c>
+      <c r="F4">
+        <v>88.3</v>
+      </c>
+      <c r="G4">
+        <v>87.5</v>
+      </c>
+      <c r="H4">
+        <v>88.2</v>
+      </c>
+      <c r="I4">
+        <v>88</v>
+      </c>
+      <c r="J4">
+        <v>87.9</v>
+      </c>
+      <c r="K4">
+        <v>87.8</v>
+      </c>
+      <c r="L4">
+        <v>87.8</v>
+      </c>
+      <c r="M4">
+        <v>88.2</v>
+      </c>
+      <c r="N4">
+        <v>87.6</v>
+      </c>
+      <c r="O4">
+        <v>87.1</v>
+      </c>
+      <c r="P4">
+        <v>86.8</v>
+      </c>
+      <c r="Q4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="R4">
+        <v>89.8</v>
+      </c>
+      <c r="S4">
+        <v>91.5</v>
+      </c>
+      <c r="T4">
+        <v>91.1</v>
+      </c>
+      <c r="U4">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="n">
+        <v>28</v>
+      </c>
+      <c r="B5">
         <v>88.5</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>89.6</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>88.2</v>
+      </c>
+      <c r="F5">
+        <v>88</v>
+      </c>
+      <c r="G5">
+        <v>89.2</v>
+      </c>
+      <c r="H5">
+        <v>89.5</v>
+      </c>
+      <c r="I5">
+        <v>89</v>
+      </c>
+      <c r="J5">
+        <v>88.7</v>
+      </c>
+      <c r="K5">
+        <v>89.2</v>
+      </c>
+      <c r="L5">
+        <v>88.1</v>
+      </c>
+      <c r="M5">
+        <v>87.5</v>
+      </c>
+      <c r="N5">
+        <v>88.3</v>
+      </c>
+      <c r="O5">
+        <v>88.7</v>
+      </c>
+      <c r="P5">
+        <v>89.1</v>
+      </c>
+      <c r="Q5">
+        <v>92.5</v>
+      </c>
+      <c r="R5">
+        <v>82.3</v>
+      </c>
+      <c r="S5">
+        <v>88.1</v>
+      </c>
+      <c r="T5">
+        <v>89</v>
+      </c>
+      <c r="U5">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" t="n">
+        <v>29</v>
+      </c>
+      <c r="B6">
         <v>35.9</v>
       </c>
-      <c r="C6" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D6">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>30.8</v>
+      </c>
+      <c r="F6">
+        <v>32.6</v>
+      </c>
+      <c r="G6">
+        <v>31</v>
+      </c>
+      <c r="H6">
+        <v>28.9</v>
+      </c>
+      <c r="I6">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J6">
+        <v>30</v>
+      </c>
+      <c r="K6">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L6">
+        <v>29.2</v>
+      </c>
+      <c r="M6">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="N6">
+        <v>38.9</v>
+      </c>
+      <c r="O6">
+        <v>38</v>
+      </c>
+      <c r="P6">
+        <v>31.5</v>
+      </c>
+      <c r="Q6">
+        <v>29.2</v>
+      </c>
+      <c r="R6">
+        <v>41.1</v>
+      </c>
+      <c r="S6">
+        <v>49</v>
+      </c>
+      <c r="T6">
+        <v>39.4</v>
+      </c>
+      <c r="U6">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="n">
+        <v>30</v>
+      </c>
+      <c r="B7">
         <v>98.3</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>98.5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="E7">
+        <v>98.8</v>
+      </c>
+      <c r="F7">
+        <v>99</v>
+      </c>
+      <c r="G7">
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>98.9</v>
+      </c>
+      <c r="I7">
+        <v>99.3</v>
+      </c>
+      <c r="J7">
+        <v>99.4</v>
+      </c>
+      <c r="K7">
+        <v>98.7</v>
+      </c>
+      <c r="L7">
+        <v>99</v>
+      </c>
+      <c r="M7">
+        <v>98.5</v>
+      </c>
+      <c r="N7">
+        <v>98.9</v>
+      </c>
+      <c r="O7">
+        <v>98.6</v>
+      </c>
+      <c r="P7">
+        <v>97.9</v>
+      </c>
+      <c r="Q7">
+        <v>98.6</v>
+      </c>
+      <c r="R7">
+        <v>99.2</v>
+      </c>
+      <c r="S7">
+        <v>99.6</v>
+      </c>
+      <c r="T7">
+        <v>99.2</v>
+      </c>
+      <c r="U7">
+        <v>98.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8">
         <v>14.7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>13.4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>14.3</v>
+      </c>
+      <c r="E8">
+        <v>14.5</v>
+      </c>
+      <c r="F8">
+        <v>14.3</v>
+      </c>
+      <c r="G8">
+        <v>13.9</v>
+      </c>
+      <c r="H8">
+        <v>14.2</v>
+      </c>
+      <c r="I8">
+        <v>14.5</v>
+      </c>
+      <c r="J8">
+        <v>14.7</v>
+      </c>
+      <c r="K8">
+        <v>13.8</v>
+      </c>
+      <c r="L8">
+        <v>15.3</v>
+      </c>
+      <c r="M8">
+        <v>15.3</v>
+      </c>
+      <c r="N8">
+        <v>14.8</v>
+      </c>
+      <c r="O8">
+        <v>14.6</v>
+      </c>
+      <c r="P8">
+        <v>15.2</v>
+      </c>
+      <c r="Q8">
+        <v>20.3</v>
+      </c>
+      <c r="R8">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S8">
+        <v>12.8</v>
+      </c>
+      <c r="T8">
+        <v>12.8</v>
+      </c>
+      <c r="U8">
+        <v>14.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3">
         <v>91.8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>91.7</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>92.2</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>92</v>
+      </c>
+      <c r="F3">
+        <v>92.9</v>
+      </c>
+      <c r="G3">
+        <v>92.5</v>
+      </c>
+      <c r="H3">
+        <v>92.1</v>
+      </c>
+      <c r="I3">
+        <v>92.5</v>
+      </c>
+      <c r="J3">
+        <v>93</v>
+      </c>
+      <c r="K3">
+        <v>92.2</v>
+      </c>
+      <c r="L3">
+        <v>92.1</v>
+      </c>
+      <c r="M3">
+        <v>92.6</v>
+      </c>
+      <c r="N3">
+        <v>92.6</v>
+      </c>
+      <c r="O3">
+        <v>92.5</v>
+      </c>
+      <c r="P3">
+        <v>91</v>
+      </c>
+      <c r="Q3">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="R3">
+        <v>93.4</v>
+      </c>
+      <c r="S3">
+        <v>95.2</v>
+      </c>
+      <c r="T3">
+        <v>94.3</v>
+      </c>
+      <c r="U3">
+        <v>91.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4">
         <v>88.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>89.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>88.1</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>88.8</v>
+      </c>
+      <c r="F4">
+        <v>89.8</v>
+      </c>
+      <c r="G4">
+        <v>89.7</v>
+      </c>
+      <c r="H4">
+        <v>88.8</v>
+      </c>
+      <c r="I4">
+        <v>88.5</v>
+      </c>
+      <c r="J4">
+        <v>89.1</v>
+      </c>
+      <c r="K4">
+        <v>88.9</v>
+      </c>
+      <c r="L4">
+        <v>87.7</v>
+      </c>
+      <c r="M4">
+        <v>88.6</v>
+      </c>
+      <c r="N4">
+        <v>88.7</v>
+      </c>
+      <c r="O4">
+        <v>89</v>
+      </c>
+      <c r="P4">
+        <v>86.7</v>
+      </c>
+      <c r="Q4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="R4">
+        <v>91.3</v>
+      </c>
+      <c r="S4">
+        <v>92.6</v>
+      </c>
+      <c r="T4">
+        <v>90.9</v>
+      </c>
+      <c r="U4">
+        <v>88.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5">
         <v>3.7</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2.5</v>
       </c>
-      <c r="D5" t="n">
-        <v>4.1</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5">
+        <v>3.1</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2.8</v>
+      </c>
+      <c r="H5">
+        <v>3.4</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3.9</v>
+      </c>
+      <c r="K5">
+        <v>3.3</v>
+      </c>
+      <c r="L5">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+      <c r="N5">
+        <v>3.9</v>
+      </c>
+      <c r="O5">
+        <v>3.5</v>
+      </c>
+      <c r="P5">
+        <v>4.3</v>
+      </c>
+      <c r="Q5">
+        <v>6</v>
+      </c>
+      <c r="R5">
+        <v>2.1</v>
+      </c>
+      <c r="S5">
+        <v>2.6</v>
+      </c>
+      <c r="T5">
+        <v>3.3</v>
+      </c>
+      <c r="U5">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>8.1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>7.7</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7.5</v>
+      </c>
+      <c r="H6">
+        <v>7.7</v>
+      </c>
+      <c r="I6">
+        <v>7.3</v>
+      </c>
+      <c r="J6">
+        <v>6.8</v>
+      </c>
+      <c r="K6">
+        <v>7.7</v>
+      </c>
+      <c r="L6">
+        <v>7.7</v>
+      </c>
+      <c r="M6">
+        <v>7.2</v>
+      </c>
+      <c r="N6">
+        <v>7.2</v>
+      </c>
+      <c r="O6">
+        <v>7.5</v>
+      </c>
+      <c r="P6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="Q6">
+        <v>19.7</v>
+      </c>
+      <c r="R6">
+        <v>6.5</v>
+      </c>
+      <c r="S6">
+        <v>4.7</v>
+      </c>
+      <c r="T6">
+        <v>5.5</v>
+      </c>
+      <c r="U6">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B7">
         <v>0.2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7">
+        <v>0.4</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.2</v>
+      </c>
+      <c r="N7">
+        <v>0.2</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7</v>
+      </c>
+      <c r="Q7">
+        <v>0.2</v>
+      </c>
+      <c r="R7">
+        <v>0.1</v>
+      </c>
+      <c r="S7">
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <v>0.2</v>
+      </c>
+      <c r="U7">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3">
         <v>69.5</v>
       </c>
-      <c r="C3" t="n">
-        <v>69.9</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="D3">
         <v>72</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="F3">
+        <v>69</v>
+      </c>
+      <c r="G3">
+        <v>65.8</v>
+      </c>
+      <c r="H3">
+        <v>74.2</v>
+      </c>
+      <c r="I3">
+        <v>70.5</v>
+      </c>
+      <c r="J3">
+        <v>69.3</v>
+      </c>
+      <c r="K3">
+        <v>72.7</v>
+      </c>
+      <c r="L3">
+        <v>71</v>
+      </c>
+      <c r="M3">
+        <v>77.5</v>
+      </c>
+      <c r="N3">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="O3">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="P3">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="Q3">
+        <v>46.9</v>
+      </c>
+      <c r="R3">
+        <v>74</v>
+      </c>
+      <c r="S3">
+        <v>81</v>
+      </c>
+      <c r="T3">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="U3">
+        <v>68.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
-        <v>36.2</v>
-      </c>
-      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="C4">
         <v>38.4</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>40</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="F4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="G4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="H4">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="I4">
+        <v>36.1</v>
+      </c>
+      <c r="J4">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K4">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L4">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="M4">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N4">
+        <v>38.9</v>
+      </c>
+      <c r="O4">
+        <v>36.9</v>
+      </c>
+      <c r="P4">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>18.3</v>
+      </c>
+      <c r="R4">
+        <v>42.2</v>
+      </c>
+      <c r="S4">
+        <v>28.6</v>
+      </c>
+      <c r="T4">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="U4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="C5">
+        <v>31.5</v>
+      </c>
+      <c r="D5">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>27.8</v>
+      </c>
+      <c r="F5">
+        <v>28.8</v>
+      </c>
+      <c r="G5">
+        <v>26</v>
+      </c>
+      <c r="H5">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I5">
+        <v>34.4</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>39.9</v>
+      </c>
+      <c r="L5">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="M5">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="N5">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O5">
+        <v>34.5</v>
+      </c>
+      <c r="P5">
+        <v>36.4</v>
+      </c>
+      <c r="Q5">
+        <v>28.6</v>
+      </c>
+      <c r="R5">
+        <v>31.8</v>
+      </c>
+      <c r="S5">
+        <v>52.4</v>
+      </c>
+      <c r="T5">
+        <v>44.1</v>
+      </c>
+      <c r="U5">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6">
+        <v>29.9</v>
+      </c>
+      <c r="C6">
+        <v>29.3</v>
+      </c>
+      <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>31.5</v>
+      </c>
+      <c r="F6">
+        <v>31</v>
+      </c>
+      <c r="G6">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H6">
+        <v>25.4</v>
+      </c>
+      <c r="I6">
+        <v>29</v>
+      </c>
+      <c r="J6">
+        <v>30.7</v>
+      </c>
+      <c r="K6">
+        <v>27.3</v>
+      </c>
+      <c r="L6">
+        <v>28.8</v>
+      </c>
+      <c r="M6">
+        <v>21.9</v>
+      </c>
+      <c r="N6">
+        <v>24.3</v>
+      </c>
+      <c r="O6">
+        <v>28.6</v>
+      </c>
+      <c r="P6">
+        <v>30.7</v>
+      </c>
+      <c r="Q6">
+        <v>52.9</v>
+      </c>
+      <c r="R6">
+        <v>25.8</v>
+      </c>
+      <c r="S6">
         <v>19</v>
       </c>
-      <c r="B5" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>31.5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="C6" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="T6">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="U6">
+        <v>31.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B7">
         <v>0.6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.8</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.6</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.2</v>
+      </c>
+      <c r="M7">
+        <v>0.7</v>
+      </c>
+      <c r="N7">
+        <v>0.1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7</v>
+      </c>
+      <c r="Q7">
+        <v>0.2</v>
+      </c>
+      <c r="R7">
+        <v>0.2</v>
+      </c>
+      <c r="S7">
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3">
         <v>10.3</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>9.9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>10.8</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>10.9</v>
+      </c>
+      <c r="F3">
+        <v>11.1</v>
+      </c>
+      <c r="G3">
+        <v>10.5</v>
+      </c>
+      <c r="H3">
+        <v>11.6</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>10.7</v>
+      </c>
+      <c r="K3">
+        <v>10.7</v>
+      </c>
+      <c r="L3">
+        <v>11.8</v>
+      </c>
+      <c r="M3">
+        <v>12.2</v>
+      </c>
+      <c r="N3">
+        <v>10.6</v>
+      </c>
+      <c r="O3">
+        <v>10.8</v>
+      </c>
+      <c r="P3">
+        <v>11.5</v>
+      </c>
+      <c r="Q3">
+        <v>6.4</v>
+      </c>
+      <c r="R3">
+        <v>13.6</v>
+      </c>
+      <c r="S3">
+        <v>11.8</v>
+      </c>
+      <c r="T3">
+        <v>10.9</v>
+      </c>
+      <c r="U3">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4">
         <v>7.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6.9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>7.7</v>
+      </c>
+      <c r="F4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G4">
+        <v>7.7</v>
+      </c>
+      <c r="H4">
+        <v>7.7</v>
+      </c>
+      <c r="I4">
+        <v>7.5</v>
+      </c>
+      <c r="J4">
+        <v>7.3</v>
+      </c>
+      <c r="K4">
+        <v>7.9</v>
+      </c>
+      <c r="L4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="M4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="N4">
+        <v>7.5</v>
+      </c>
+      <c r="O4">
+        <v>7.8</v>
+      </c>
+      <c r="P4">
+        <v>7.9</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="S4">
+        <v>7.7</v>
+      </c>
+      <c r="T4">
+        <v>7.2</v>
+      </c>
+      <c r="U4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5">
         <v>2.8</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>3.1</v>
+      </c>
+      <c r="F5">
+        <v>2.9</v>
+      </c>
+      <c r="G5">
+        <v>2.8</v>
+      </c>
+      <c r="H5">
+        <v>3.9</v>
+      </c>
+      <c r="I5">
+        <v>3.4</v>
+      </c>
+      <c r="J5">
+        <v>3.4</v>
+      </c>
+      <c r="K5">
+        <v>2.8</v>
+      </c>
+      <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>3.9</v>
+      </c>
+      <c r="N5">
+        <v>3.1</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3.7</v>
+      </c>
+      <c r="Q5">
+        <v>2.4</v>
+      </c>
+      <c r="R5">
+        <v>3.9</v>
+      </c>
+      <c r="S5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="T5">
+        <v>3.7</v>
+      </c>
+      <c r="U5">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6">
         <v>88.9</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>89.4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>88.7</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>88.6</v>
+      </c>
+      <c r="F6">
+        <v>88.4</v>
+      </c>
+      <c r="G6">
+        <v>89.2</v>
+      </c>
+      <c r="H6">
+        <v>87.9</v>
+      </c>
+      <c r="I6">
+        <v>88.7</v>
+      </c>
+      <c r="J6">
+        <v>89</v>
+      </c>
+      <c r="K6">
+        <v>88.8</v>
+      </c>
+      <c r="L6">
+        <v>87.9</v>
+      </c>
+      <c r="M6">
+        <v>87.4</v>
+      </c>
+      <c r="N6">
+        <v>88.9</v>
+      </c>
+      <c r="O6">
+        <v>88.7</v>
+      </c>
+      <c r="P6">
+        <v>87.7</v>
+      </c>
+      <c r="Q6">
+        <v>93</v>
+      </c>
+      <c r="R6">
+        <v>86.2</v>
+      </c>
+      <c r="S6">
+        <v>88</v>
+      </c>
+      <c r="T6">
+        <v>88.5</v>
+      </c>
+      <c r="U6">
+        <v>88.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B7">
         <v>0.8</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.4</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>0.3</v>
+      </c>
+      <c r="H7">
+        <v>0.5</v>
+      </c>
+      <c r="I7">
+        <v>0.3</v>
+      </c>
+      <c r="J7">
+        <v>0.3</v>
+      </c>
+      <c r="K7">
+        <v>0.5</v>
+      </c>
+      <c r="L7">
+        <v>0.3</v>
+      </c>
+      <c r="M7">
+        <v>0.4</v>
+      </c>
+      <c r="N7">
+        <v>0.5</v>
+      </c>
+      <c r="O7">
+        <v>0.5</v>
+      </c>
+      <c r="P7">
+        <v>0.8</v>
+      </c>
+      <c r="Q7">
+        <v>0.6</v>
+      </c>
+      <c r="R7">
+        <v>0.2</v>
+      </c>
+      <c r="S7">
+        <v>0.2</v>
+      </c>
+      <c r="T7">
+        <v>0.6</v>
+      </c>
+      <c r="U7">
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3">
         <v>92.4</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>93</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>92.5</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>92.2</v>
+      </c>
+      <c r="F3">
+        <v>91.9</v>
+      </c>
+      <c r="G3">
+        <v>92.9</v>
+      </c>
+      <c r="H3">
+        <v>92.4</v>
+      </c>
+      <c r="I3">
+        <v>92.6</v>
+      </c>
+      <c r="J3">
+        <v>92.8</v>
+      </c>
+      <c r="K3">
+        <v>92.4</v>
+      </c>
+      <c r="L3">
+        <v>91.8</v>
+      </c>
+      <c r="M3">
+        <v>92</v>
+      </c>
+      <c r="N3">
+        <v>92.9</v>
+      </c>
+      <c r="O3">
+        <v>92.7</v>
+      </c>
+      <c r="P3">
+        <v>92.3</v>
+      </c>
+      <c r="Q3">
+        <v>95.3</v>
+      </c>
+      <c r="R3">
+        <v>88.4</v>
+      </c>
+      <c r="S3">
+        <v>91.7</v>
+      </c>
+      <c r="T3">
+        <v>92.7</v>
+      </c>
+      <c r="U3">
+        <v>92.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4">
         <v>88.5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>89.6</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>89.3</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>88.2</v>
+      </c>
+      <c r="F4">
+        <v>88</v>
+      </c>
+      <c r="G4">
+        <v>89.2</v>
+      </c>
+      <c r="H4">
+        <v>89.5</v>
+      </c>
+      <c r="I4">
+        <v>89</v>
+      </c>
+      <c r="J4">
+        <v>88.7</v>
+      </c>
+      <c r="K4">
+        <v>89.2</v>
+      </c>
+      <c r="L4">
+        <v>88.1</v>
+      </c>
+      <c r="M4">
+        <v>87.5</v>
+      </c>
+      <c r="N4">
+        <v>88.3</v>
+      </c>
+      <c r="O4">
+        <v>88.7</v>
+      </c>
+      <c r="P4">
+        <v>89.1</v>
+      </c>
+      <c r="Q4">
+        <v>92.5</v>
+      </c>
+      <c r="R4">
+        <v>82.3</v>
+      </c>
+      <c r="S4">
+        <v>88.1</v>
+      </c>
+      <c r="T4">
+        <v>89</v>
+      </c>
+      <c r="U4">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5">
         <v>3.9</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3.4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>3.9</v>
+      </c>
+      <c r="G5">
+        <v>3.7</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3.7</v>
+      </c>
+      <c r="J5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K5">
+        <v>3.2</v>
+      </c>
+      <c r="L5">
+        <v>3.8</v>
+      </c>
+      <c r="M5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="O5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P5">
+        <v>3.2</v>
+      </c>
+      <c r="Q5">
+        <v>2.7</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>3.6</v>
+      </c>
+      <c r="T5">
+        <v>3.7</v>
+      </c>
+      <c r="U5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6">
         <v>7.4</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>7.6</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6">
+        <v>7.1</v>
+      </c>
+      <c r="H6">
+        <v>7.4</v>
+      </c>
+      <c r="I6">
+        <v>7.2</v>
+      </c>
+      <c r="J6">
+        <v>7.1</v>
+      </c>
+      <c r="K6">
+        <v>7.4</v>
+      </c>
+      <c r="L6">
+        <v>8.1</v>
+      </c>
+      <c r="M6">
+        <v>7.7</v>
+      </c>
+      <c r="N6">
+        <v>6.9</v>
+      </c>
+      <c r="O6">
+        <v>7</v>
+      </c>
+      <c r="P6">
+        <v>7.5</v>
+      </c>
+      <c r="Q6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="R6">
+        <v>11.5</v>
+      </c>
+      <c r="S6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="T6">
+        <v>7.1</v>
+      </c>
+      <c r="U6">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B7">
         <v>0.2</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>0.2</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0.2</v>
+      </c>
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+      <c r="J7">
+        <v>0.2</v>
+      </c>
+      <c r="K7">
+        <v>0.2</v>
+      </c>
+      <c r="L7">
+        <v>0.1</v>
+      </c>
+      <c r="M7">
+        <v>0.2</v>
+      </c>
+      <c r="N7">
+        <v>0.2</v>
+      </c>
+      <c r="O7">
+        <v>0.2</v>
+      </c>
+      <c r="P7">
+        <v>0.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.1</v>
+      </c>
+      <c r="R7">
+        <v>0.2</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0.3</v>
+      </c>
+      <c r="U7">
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3">
         <v>73</v>
       </c>
-      <c r="C3" t="n">
-        <v>64.4</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="D3">
         <v>66.8</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>65.3</v>
+      </c>
+      <c r="F3">
+        <v>67.3</v>
+      </c>
+      <c r="G3">
+        <v>67</v>
+      </c>
+      <c r="H3">
+        <v>62.6</v>
+      </c>
+      <c r="I3">
+        <v>69.3</v>
+      </c>
+      <c r="J3">
+        <v>68</v>
+      </c>
+      <c r="K3">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="L3">
+        <v>69.5</v>
+      </c>
+      <c r="M3">
+        <v>68.8</v>
+      </c>
+      <c r="N3">
+        <v>74.2</v>
+      </c>
+      <c r="O3">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="P3">
+        <v>69.5</v>
+      </c>
+      <c r="Q3">
+        <v>80.7</v>
+      </c>
+      <c r="R3">
+        <v>58.5</v>
+      </c>
+      <c r="S3">
+        <v>67.400000000000006</v>
+      </c>
+      <c r="T3">
+        <v>68.2</v>
+      </c>
+      <c r="U3">
+        <v>73.099999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4">
         <v>37.1</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>30.7</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>41.7</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>34.5</v>
+      </c>
+      <c r="F4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G4">
+        <v>36</v>
+      </c>
+      <c r="H4">
+        <v>33.6</v>
+      </c>
+      <c r="I4">
+        <v>37.1</v>
+      </c>
+      <c r="J4">
+        <v>38</v>
+      </c>
+      <c r="K4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="L4">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="M4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="N4">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O4">
+        <v>34.6</v>
+      </c>
+      <c r="P4">
+        <v>37.9</v>
+      </c>
+      <c r="Q4">
+        <v>51.5</v>
+      </c>
+      <c r="R4">
+        <v>17.3</v>
+      </c>
+      <c r="S4">
+        <v>18.3</v>
+      </c>
+      <c r="T4">
+        <v>28.8</v>
+      </c>
+      <c r="U4">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5">
         <v>35.9</v>
       </c>
-      <c r="C5" t="n">
-        <v>33.7</v>
-      </c>
-      <c r="D5" t="n">
+      <c r="C5">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="D5">
         <v>25.2</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5">
+        <v>30.8</v>
+      </c>
+      <c r="F5">
+        <v>32.6</v>
+      </c>
+      <c r="G5">
+        <v>31</v>
+      </c>
+      <c r="H5">
+        <v>28.9</v>
+      </c>
+      <c r="I5">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="J5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="L5">
+        <v>29.2</v>
+      </c>
+      <c r="M5">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="N5">
+        <v>38.9</v>
+      </c>
+      <c r="O5">
+        <v>38</v>
+      </c>
+      <c r="P5">
+        <v>31.5</v>
+      </c>
+      <c r="Q5">
+        <v>29.2</v>
+      </c>
+      <c r="R5">
+        <v>41.1</v>
+      </c>
+      <c r="S5">
+        <v>49</v>
+      </c>
+      <c r="T5">
+        <v>39.4</v>
+      </c>
+      <c r="U5">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6">
         <v>27</v>
       </c>
-      <c r="C6" t="n">
-        <v>35.3</v>
-      </c>
-      <c r="D6" t="n">
+      <c r="C6">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="D6">
         <v>32.9</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>34.5</v>
+      </c>
+      <c r="F6">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="G6">
+        <v>33</v>
+      </c>
+      <c r="H6">
+        <v>37.4</v>
+      </c>
+      <c r="I6">
+        <v>30.3</v>
+      </c>
+      <c r="J6">
+        <v>31.6</v>
+      </c>
+      <c r="K6">
+        <v>26.6</v>
+      </c>
+      <c r="L6">
+        <v>30</v>
+      </c>
+      <c r="M6">
+        <v>30.6</v>
+      </c>
+      <c r="N6">
+        <v>25.7</v>
+      </c>
+      <c r="O6">
+        <v>27.4</v>
+      </c>
+      <c r="P6">
+        <v>30.2</v>
+      </c>
+      <c r="Q6">
+        <v>18.8</v>
+      </c>
+      <c r="R6">
+        <v>41.5</v>
+      </c>
+      <c r="S6">
+        <v>32.6</v>
+      </c>
+      <c r="T6">
+        <v>31.6</v>
+      </c>
+      <c r="U6">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B7">
         <v>0.1</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.3</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+      <c r="E7">
+        <v>0.2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0.4</v>
+      </c>
+      <c r="J7">
+        <v>0.4</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.6</v>
+      </c>
+      <c r="M7">
+        <v>0.5</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.3</v>
+      </c>
+      <c r="Q7">
+        <v>0.5</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0.1</v>
+      </c>
+      <c r="T7">
+        <v>0.2</v>
+      </c>
+      <c r="U7">
         <v>0.3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:U7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>21</v>
+      </c>
+      <c r="R2" t="s">
+        <v>22</v>
+      </c>
+      <c r="S2" t="s">
+        <v>23</v>
+      </c>
+      <c r="T2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B3">
         <v>11.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10.8</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>10.1</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="E3">
+        <v>10.8</v>
+      </c>
+      <c r="F3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="G3">
+        <v>11.3</v>
+      </c>
+      <c r="H3">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="I3">
+        <v>10.6</v>
+      </c>
+      <c r="J3">
+        <v>10.3</v>
+      </c>
+      <c r="K3">
+        <v>11</v>
+      </c>
+      <c r="L3">
+        <v>10.9</v>
+      </c>
+      <c r="M3">
+        <v>10.4</v>
+      </c>
+      <c r="N3">
+        <v>10.7</v>
+      </c>
+      <c r="O3">
+        <v>11.5</v>
+      </c>
+      <c r="P3">
+        <v>12</v>
+      </c>
+      <c r="Q3">
+        <v>23.3</v>
+      </c>
+      <c r="R3">
+        <v>8.4</v>
+      </c>
+      <c r="S3">
+        <v>6.6</v>
+      </c>
+      <c r="T3">
+        <v>7.7</v>
+      </c>
+      <c r="U3">
+        <v>11.6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" t="n">
+        <v>33</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D4">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="E4">
+        <v>7.7</v>
+      </c>
+      <c r="F4">
+        <v>7.1</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>8.1</v>
+      </c>
+      <c r="I4">
+        <v>7.6</v>
+      </c>
+      <c r="J4">
+        <v>7</v>
+      </c>
+      <c r="K4">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="L4">
+        <v>8</v>
+      </c>
+      <c r="M4">
+        <v>7.7</v>
+      </c>
+      <c r="N4">
+        <v>7.7</v>
+      </c>
+      <c r="O4">
+        <v>8.1</v>
+      </c>
+      <c r="P4">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="R4">
+        <v>5.2</v>
+      </c>
+      <c r="S4">
+        <v>4.3</v>
+      </c>
+      <c r="T4">
+        <v>5.6</v>
+      </c>
+      <c r="U4">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="n">
+        <v>34</v>
+      </c>
+      <c r="B5">
         <v>3.2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>2.6</v>
       </c>
-      <c r="D5" t="n">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="D5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E5">
+        <v>3.2</v>
+      </c>
+      <c r="F5">
+        <v>3.1</v>
+      </c>
+      <c r="G5">
+        <v>3.3</v>
+      </c>
+      <c r="H5">
+        <v>2.1</v>
+      </c>
+      <c r="I5">
+        <v>3.1</v>
+      </c>
+      <c r="J5">
+        <v>3.3</v>
+      </c>
+      <c r="K5">
+        <v>2.8</v>
+      </c>
+      <c r="L5">
+        <v>2.9</v>
+      </c>
+      <c r="M5">
+        <v>2.7</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>3.4</v>
+      </c>
+      <c r="P5">
+        <v>3.2</v>
+      </c>
+      <c r="Q5">
+        <v>5.6</v>
+      </c>
+      <c r="R5">
+        <v>3.3</v>
+      </c>
+      <c r="S5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T5">
+        <v>2.1</v>
+      </c>
+      <c r="U5">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="B6">
         <v>87.2</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>88.1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>88.3</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6">
+        <v>87.8</v>
+      </c>
+      <c r="F6">
+        <v>88.3</v>
+      </c>
+      <c r="G6">
+        <v>87.5</v>
+      </c>
+      <c r="H6">
+        <v>88.2</v>
+      </c>
+      <c r="I6">
+        <v>88</v>
+      </c>
+      <c r="J6">
+        <v>87.9</v>
+      </c>
+      <c r="K6">
+        <v>87.8</v>
+      </c>
+      <c r="L6">
+        <v>87.8</v>
+      </c>
+      <c r="M6">
+        <v>88.2</v>
+      </c>
+      <c r="N6">
+        <v>87.6</v>
+      </c>
+      <c r="O6">
+        <v>87.1</v>
+      </c>
+      <c r="P6">
+        <v>86.8</v>
+      </c>
+      <c r="Q6">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="R6">
+        <v>89.8</v>
+      </c>
+      <c r="S6">
+        <v>91.5</v>
+      </c>
+      <c r="T6">
+        <v>91.1</v>
+      </c>
+      <c r="U6">
+        <v>86.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="n">
+        <v>36</v>
+      </c>
+      <c r="B7">
         <v>1.6</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.2</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>1.5</v>
+      </c>
+      <c r="E7">
+        <v>1.4</v>
+      </c>
+      <c r="F7">
+        <v>1.5</v>
+      </c>
+      <c r="G7">
+        <v>1.2</v>
+      </c>
+      <c r="H7">
+        <v>1.6</v>
+      </c>
+      <c r="I7">
+        <v>1.4</v>
+      </c>
+      <c r="J7">
+        <v>1.8</v>
+      </c>
+      <c r="K7">
+        <v>1.2</v>
+      </c>
+      <c r="L7">
+        <v>1.3</v>
+      </c>
+      <c r="M7">
+        <v>1.3</v>
+      </c>
+      <c r="N7">
+        <v>1.6</v>
+      </c>
+      <c r="O7">
+        <v>1.3</v>
+      </c>
+      <c r="P7">
+        <v>1.2</v>
+      </c>
+      <c r="Q7">
+        <v>0.9</v>
+      </c>
+      <c r="R7">
+        <v>1.8</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>1.2</v>
+      </c>
+      <c r="U7">
+        <v>1.9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>